--- a/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0960FA7E-5E8C-43DD-9E5B-303061174A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864A659-9BDB-4F87-81DD-A501515B72E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zh_cn_itemDes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,68 +76,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恢复（10%-30%当前最大生命）生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复部分生命</t>
   </si>
   <si>
-    <t>恢复（30%-60%）生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复大量生命</t>
   </si>
   <si>
-    <t>恢复（50%-80%）生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生命之力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加1点生命最大值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生命祝福</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加2点生命最大值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生命礼赞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加3点生命最大值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>守护1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得1-3点护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2-6点护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3-8点护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5-12点护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>守护2</t>
   </si>
   <si>
@@ -156,10 +112,6 @@
   </si>
   <si>
     <t>effectType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +160,94 @@
   </si>
   <si>
     <t>效果类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复少量生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复中量生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复大量生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命最大值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命最大值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命最大值+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得少量护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得中量护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得超大量护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_00010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn_des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,16 +292,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -296,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -404,22 +437,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,8 +464,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,27 +488,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -866,7 +884,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -903,12 +921,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -920,30 +938,30 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,185 +980,208 @@
       <c r="E4" s="5">
         <v>3</v>
       </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>1401</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1402</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1403</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>1404</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1405</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>1406</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>1407</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1408</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>1409</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1402</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>1403</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>1404</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>1405</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>1410</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>1406</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>1407</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>1408</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="C14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>1409</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>1410</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>44</v>
+      <c r="F14" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864A659-9BDB-4F87-81DD-A501515B72E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C89066-A6A6-4EB6-B127-A2BF381E5971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,18 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AddHPMax</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,22 +131,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>效果类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,6 +220,34 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50;80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +884,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -992,16 +992,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
@@ -1072,13 +1072,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="20">
         <v>2</v>
@@ -1092,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="20">
         <v>3</v>
@@ -1112,16 +1112,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,16 +1132,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1152,16 +1152,16 @@
         <v>18</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1172,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C89066-A6A6-4EB6-B127-A2BF381E5971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13387F0E-03EA-4238-858F-DE48F03CFB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>zh_cn_itemDes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,23 +219,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zh_cn_des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30;60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;80</t>
+    <t>10;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,15 +243,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2;6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;12</t>
+    <t>2;4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -887,24 +887,24 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
-    <col min="12" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="4" customWidth="1"/>
+    <col min="12" max="15" width="12.125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -924,9 +924,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -938,33 +938,33 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -984,201 +984,201 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1401</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>1402</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>1403</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>1404</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1405</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>1406</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1407</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1408</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>1409</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>1410</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>55</v>

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemConsume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13387F0E-03EA-4238-858F-DE48F03CFB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDB755-7616-4CE7-9491-CD2BB4017B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>int</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>3;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +519,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -884,27 +902,27 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="4" customWidth="1"/>
-    <col min="12" max="15" width="12.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
+    <col min="12" max="15" width="12.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,8 +941,11 @@
       <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -963,8 +987,11 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -983,8 +1010,11 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1401</v>
       </c>
@@ -1003,8 +1033,11 @@
       <c r="F5" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1402</v>
       </c>
@@ -1023,8 +1056,11 @@
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1403</v>
       </c>
@@ -1043,8 +1079,11 @@
       <c r="F7" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1404</v>
       </c>
@@ -1063,8 +1102,11 @@
       <c r="F8" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1405</v>
       </c>
@@ -1083,8 +1125,11 @@
       <c r="F9" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1406</v>
       </c>
@@ -1103,8 +1148,11 @@
       <c r="F10" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1407</v>
       </c>
@@ -1123,8 +1171,11 @@
       <c r="F11" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1408</v>
       </c>
@@ -1143,8 +1194,11 @@
       <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>1409</v>
       </c>
@@ -1163,8 +1217,11 @@
       <c r="F13" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>1410</v>
       </c>
@@ -1182,6 +1239,9 @@
       </c>
       <c r="F14" s="21" t="s">
         <v>55</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
